--- a/bookapp/static/files/Bookt.xlsx
+++ b/bookapp/static/files/Bookt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB58EFF-7635-49F4-BEA4-01E92F8750D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEE00B-89E6-421C-948B-201AA6883616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD23762B-075F-4624-8B4C-36F7BACC7095}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="13884" windowHeight="8880" xr2:uid="{BD23762B-075F-4624-8B4C-36F7BACC7095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>published_date</t>
   </si>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>Author*</t>
+  </si>
+  <si>
+    <t>price*</t>
+  </si>
+  <si>
+    <t>gmail*</t>
   </si>
 </sst>
 </file>
@@ -415,55 +418,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D10F73-5D74-46CF-8EF9-D4FF524AB2F1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
